--- a/new_contract_projections.xlsx
+++ b/new_contract_projections.xlsx
@@ -444,13 +444,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>111.3</v>
+        <v>110.6</v>
       </c>
       <c r="F2">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="G2">
-        <v>3.54621425</v>
+        <v>3.539333</v>
       </c>
       <c r="H2">
         <v>0.345</v>
@@ -465,10 +465,10 @@
         <v>0.4315</v>
       </c>
       <c r="L2">
-        <v>17.25</v>
+        <v>16.5</v>
       </c>
       <c r="M2">
-        <v>0.989847</v>
+        <v>0.976642</v>
       </c>
     </row>
     <row r="3">
@@ -491,31 +491,31 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>77.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="F3">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="G3">
-        <v>1.4614895</v>
+        <v>1.4815049</v>
       </c>
       <c r="H3">
-        <v>0.3366666666666667</v>
+        <v>0.3356666666666666</v>
       </c>
       <c r="I3">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="J3">
-        <v>0.3351666666666667</v>
+        <v>0.3348333333333334</v>
       </c>
       <c r="K3">
-        <v>0.4371666666666667</v>
+        <v>0.4351666666666667</v>
       </c>
       <c r="L3">
-        <v>12.33333333333333</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="M3">
-        <v>1.29895</v>
+        <v>1.42619</v>
       </c>
     </row>
     <row r="4">
@@ -538,31 +538,31 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>189.5</v>
+        <v>189.7</v>
       </c>
       <c r="F4">
         <v>21.1</v>
       </c>
       <c r="G4">
-        <v>2.507023</v>
+        <v>2.515083857142857</v>
       </c>
       <c r="H4">
-        <v>0.3465714285714286</v>
+        <v>0.3464285714285715</v>
       </c>
       <c r="I4">
-        <v>0.3404285714285714</v>
+        <v>0.3391428571428571</v>
       </c>
       <c r="J4">
-        <v>0.3294285714285715</v>
+        <v>0.3291428571428572</v>
       </c>
       <c r="K4">
-        <v>0.4765714285714286</v>
+        <v>0.4767142857142858</v>
       </c>
       <c r="L4">
-        <v>16.57142857142857</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="M4">
-        <v>1.47072</v>
+        <v>1.53299</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +585,31 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F5">
         <v>15.4</v>
       </c>
       <c r="G5">
-        <v>2.049905</v>
+        <v>2.05068</v>
       </c>
       <c r="H5">
-        <v>0.30225</v>
+        <v>0.30175</v>
       </c>
       <c r="I5">
         <v>0.30025</v>
       </c>
       <c r="J5">
-        <v>0.31425</v>
+        <v>0.314</v>
       </c>
       <c r="K5">
-        <v>0.36975</v>
+        <v>0.36875</v>
       </c>
       <c r="L5">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="M5">
-        <v>1.06525</v>
+        <v>1.07535</v>
       </c>
     </row>
     <row r="6">
@@ -632,31 +632,31 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>54.9</v>
+        <v>54.3</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="G6">
-        <v>1.828052325</v>
+        <v>1.8188089375</v>
       </c>
       <c r="H6">
-        <v>0.2835</v>
+        <v>0.28375</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>0.29875</v>
       </c>
       <c r="J6">
-        <v>0.293125</v>
+        <v>0.294125</v>
       </c>
       <c r="K6">
-        <v>0.34275</v>
+        <v>0.341875</v>
       </c>
       <c r="L6">
-        <v>13.875</v>
+        <v>13.75</v>
       </c>
       <c r="M6">
-        <v>0.674685</v>
+        <v>0.6144539999999999</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>power-first sluggers</t>
+          <t>young with upside</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,31 +679,31 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>178.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F7">
-        <v>22.3</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>1.687130758333333</v>
+        <v>1.702207066666667</v>
       </c>
       <c r="H7">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="I7">
-        <v>0.31525</v>
+        <v>0.315</v>
       </c>
       <c r="J7">
-        <v>0.31425</v>
+        <v>0.3130000000000001</v>
       </c>
       <c r="K7">
-        <v>0.39725</v>
+        <v>0.39325</v>
       </c>
       <c r="L7">
-        <v>15.75</v>
+        <v>15.5</v>
       </c>
       <c r="M7">
-        <v>2.83476</v>
+        <v>2.90521</v>
       </c>
     </row>
     <row r="8">
@@ -726,31 +726,31 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>300.9</v>
+        <v>292.3</v>
       </c>
       <c r="F8">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="G8">
-        <v>3.817073333333333</v>
+        <v>3.776856666666667</v>
       </c>
       <c r="H8">
-        <v>0.3326666666666667</v>
+        <v>0.3283333333333333</v>
       </c>
       <c r="I8">
-        <v>0.3403333333333333</v>
+        <v>0.3366666666666666</v>
       </c>
       <c r="J8">
-        <v>0.325</v>
+        <v>0.3233333333333333</v>
       </c>
       <c r="K8">
-        <v>0.447</v>
+        <v>0.4366666666666667</v>
       </c>
       <c r="L8">
-        <v>25.33333333333333</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="M8">
-        <v>3.04435</v>
+        <v>2.93718</v>
       </c>
     </row>
     <row r="9">
@@ -773,31 +773,31 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>172.2</v>
+        <v>171.2</v>
       </c>
       <c r="F9">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="G9">
-        <v>3.87835675</v>
+        <v>3.8633445</v>
       </c>
       <c r="H9">
-        <v>0.3477499999999999</v>
+        <v>0.347</v>
       </c>
       <c r="I9">
-        <v>0.353</v>
+        <v>0.35125</v>
       </c>
       <c r="J9">
-        <v>0.34875</v>
+        <v>0.3465</v>
       </c>
       <c r="K9">
-        <v>0.4515</v>
+        <v>0.45225</v>
       </c>
       <c r="L9">
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
       <c r="M9">
-        <v>2.14339</v>
+        <v>2.09657</v>
       </c>
     </row>
     <row r="10">
@@ -820,31 +820,31 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>314.4</v>
+        <v>302.9</v>
       </c>
       <c r="F10">
-        <v>34.9</v>
+        <v>33.7</v>
       </c>
       <c r="G10">
-        <v>2.531195</v>
+        <v>2.525595</v>
       </c>
       <c r="H10">
-        <v>0.382</v>
+        <v>0.3755</v>
       </c>
       <c r="I10">
-        <v>0.3725000000000001</v>
+        <v>0.369</v>
       </c>
       <c r="J10">
-        <v>0.371</v>
+        <v>0.3725</v>
       </c>
       <c r="K10">
-        <v>0.5215</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="L10">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
       <c r="M10">
-        <v>3.85346</v>
+        <v>3.84587</v>
       </c>
     </row>
     <row r="11">
@@ -867,31 +867,31 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>68.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F11">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="G11">
-        <v>2.0144188</v>
+        <v>2.02550918</v>
       </c>
       <c r="H11">
-        <v>0.3004</v>
+        <v>0.302</v>
       </c>
       <c r="I11">
-        <v>0.3108</v>
+        <v>0.3128</v>
       </c>
       <c r="J11">
-        <v>0.2996</v>
+        <v>0.301</v>
       </c>
       <c r="K11">
-        <v>0.3834</v>
+        <v>0.3858</v>
       </c>
       <c r="L11">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M11">
-        <v>1.11298</v>
+        <v>1.17187</v>
       </c>
     </row>
     <row r="12">
@@ -914,31 +914,31 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>223.2</v>
+        <v>222.7</v>
       </c>
       <c r="F12">
         <v>22.3</v>
       </c>
       <c r="G12">
-        <v>3.2099675</v>
+        <v>3.2027375</v>
       </c>
       <c r="H12">
-        <v>0.31675</v>
+        <v>0.3185</v>
       </c>
       <c r="I12">
-        <v>0.326</v>
+        <v>0.32525</v>
       </c>
       <c r="J12">
-        <v>0.3169999999999999</v>
+        <v>0.31825</v>
       </c>
       <c r="K12">
-        <v>0.4025</v>
+        <v>0.4062500000000001</v>
       </c>
       <c r="L12">
-        <v>17.5</v>
+        <v>16.75</v>
       </c>
       <c r="M12">
-        <v>4.03772</v>
+        <v>4.02583</v>
       </c>
     </row>
     <row r="13">
@@ -958,34 +958,34 @@
         </is>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>110.2</v>
+        <v>97.8</v>
       </c>
       <c r="F13">
+        <v>24.5</v>
+      </c>
+      <c r="G13">
+        <v>0.8581548666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.318</v>
+      </c>
+      <c r="I13">
+        <v>0.322</v>
+      </c>
+      <c r="J13">
+        <v>0.2985</v>
+      </c>
+      <c r="K13">
+        <v>0.437</v>
+      </c>
+      <c r="L13">
         <v>22</v>
       </c>
-      <c r="G13">
-        <v>0.8922324333333332</v>
-      </c>
-      <c r="H13">
-        <v>0.3255</v>
-      </c>
-      <c r="I13">
-        <v>0.3325</v>
-      </c>
-      <c r="J13">
-        <v>0.305</v>
-      </c>
-      <c r="K13">
-        <v>0.4505</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
       <c r="M13">
-        <v>1.9487</v>
+        <v>1.84695</v>
       </c>
     </row>
     <row r="14">
@@ -1008,31 +1008,31 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>108.9</v>
+        <v>110.1</v>
       </c>
       <c r="F14">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1.652551133333333</v>
+        <v>1.669761609090909</v>
       </c>
       <c r="H14">
-        <v>0.3718</v>
+        <v>0.3719</v>
       </c>
       <c r="I14">
-        <v>0.356</v>
+        <v>0.3566</v>
       </c>
       <c r="J14">
-        <v>0.3590000000000001</v>
+        <v>0.3591000000000001</v>
       </c>
       <c r="K14">
-        <v>0.5143000000000001</v>
+        <v>0.5145000000000001</v>
       </c>
       <c r="L14">
         <v>33.4</v>
       </c>
       <c r="M14">
-        <v>2.53497</v>
+        <v>2.73367</v>
       </c>
     </row>
     <row r="15">
@@ -1055,31 +1055,31 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>179.9</v>
+        <v>180.5</v>
       </c>
       <c r="F15">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="G15">
-        <v>3.120880375</v>
+        <v>3.13283325</v>
       </c>
       <c r="H15">
         <v>0.365875</v>
       </c>
       <c r="I15">
-        <v>0.3518749999999999</v>
+        <v>0.351625</v>
       </c>
       <c r="J15">
-        <v>0.35725</v>
+        <v>0.3575</v>
       </c>
       <c r="K15">
-        <v>0.5018750000000001</v>
+        <v>0.50125</v>
       </c>
       <c r="L15">
         <v>19.5</v>
       </c>
       <c r="M15">
-        <v>3.91908</v>
+        <v>4.02683</v>
       </c>
     </row>
     <row r="16">
@@ -1102,31 +1102,31 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>73.09999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F16">
         <v>9.1</v>
       </c>
       <c r="G16">
-        <v>1.643470666666667</v>
+        <v>1.645292333333333</v>
       </c>
       <c r="H16">
-        <v>0.284</v>
+        <v>0.2826666666666666</v>
       </c>
       <c r="I16">
-        <v>0.2786666666666667</v>
+        <v>0.2776666666666667</v>
       </c>
       <c r="J16">
-        <v>0.3003333333333333</v>
+        <v>0.2976666666666667</v>
       </c>
       <c r="K16">
-        <v>0.3393333333333333</v>
+        <v>0.3396666666666667</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16">
-        <v>2.18783</v>
+        <v>2.19172</v>
       </c>
     </row>
     <row r="17">
@@ -1149,31 +1149,31 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>107.8</v>
+        <v>108.1</v>
       </c>
       <c r="F17">
         <v>27</v>
       </c>
       <c r="G17">
-        <v>1.3543997</v>
+        <v>1.36938766</v>
       </c>
       <c r="H17">
-        <v>0.3346666666666667</v>
+        <v>0.334</v>
       </c>
       <c r="I17">
-        <v>0.3243333333333334</v>
+        <v>0.322</v>
       </c>
       <c r="J17">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="K17">
-        <v>0.4486666666666667</v>
+        <v>0.4503333333333333</v>
       </c>
       <c r="L17">
-        <v>21.66666666666667</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M17">
-        <v>1.49626</v>
+        <v>1.57597</v>
       </c>
     </row>
     <row r="18">
@@ -1196,31 +1196,31 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>320.4</v>
+        <v>322.2</v>
       </c>
       <c r="F18">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="G18">
-        <v>2.910872142857143</v>
+        <v>2.922371428571429</v>
       </c>
       <c r="H18">
-        <v>0.3684285714285714</v>
+        <v>0.3681428571428572</v>
       </c>
       <c r="I18">
-        <v>0.3627142857142857</v>
+        <v>0.3628571428571429</v>
       </c>
       <c r="J18">
-        <v>0.3495714285714286</v>
+        <v>0.3491428571428571</v>
       </c>
       <c r="K18">
-        <v>0.521</v>
+        <v>0.5208571428571428</v>
       </c>
       <c r="L18">
         <v>37.71428571428572</v>
       </c>
       <c r="M18">
-        <v>2.91717</v>
+        <v>3.09539</v>
       </c>
     </row>
     <row r="19">
@@ -1243,31 +1243,31 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>287.2</v>
+        <v>284.3</v>
       </c>
       <c r="F19">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="G19">
-        <v>2.59739</v>
+        <v>2.571105</v>
       </c>
       <c r="H19">
-        <v>0.34925</v>
+        <v>0.348</v>
       </c>
       <c r="I19">
-        <v>0.3445</v>
+        <v>0.34325</v>
       </c>
       <c r="J19">
-        <v>0.33225</v>
+        <v>0.33075</v>
       </c>
       <c r="K19">
-        <v>0.4755</v>
+        <v>0.4742499999999999</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>2.99622</v>
+        <v>2.8875</v>
       </c>
     </row>
     <row r="20">
@@ -1290,31 +1290,31 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>116.2</v>
+        <v>114.1</v>
       </c>
       <c r="F20">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="G20">
-        <v>3.616465</v>
+        <v>3.59123</v>
       </c>
       <c r="H20">
-        <v>0.322</v>
+        <v>0.3205</v>
       </c>
       <c r="I20">
-        <v>0.33875</v>
+        <v>0.33425</v>
       </c>
       <c r="J20">
-        <v>0.3524999999999999</v>
+        <v>0.3514999999999999</v>
       </c>
       <c r="K20">
-        <v>0.368</v>
+        <v>0.36625</v>
       </c>
       <c r="L20">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>2.37767</v>
+        <v>2.26243</v>
       </c>
     </row>
     <row r="21">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>power-first sluggers</t>
+          <t>high-floor contributors</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1334,34 +1334,34 @@
         </is>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>188.3</v>
+        <v>64.5</v>
       </c>
       <c r="F21">
-        <v>23.5</v>
+        <v>12.9</v>
       </c>
       <c r="G21">
-        <v>2.220165</v>
+        <v>2.31429</v>
       </c>
       <c r="H21">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="I21">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="J21">
         <v>0.3275</v>
       </c>
       <c r="K21">
-        <v>0.441</v>
+        <v>0.4385</v>
       </c>
       <c r="L21">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="M21">
-        <v>1.45906</v>
+        <v>1.6438</v>
       </c>
     </row>
   </sheetData>
